--- a/DataProject/Singapore-Area.xlsx
+++ b/DataProject/Singapore-Area.xlsx
@@ -168,12 +168,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,7 +192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
